--- a/imagenes.xlsx
+++ b/imagenes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jveraz\Documents\paucartambo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EDA0227-1A7F-4B68-97E7-9E6A60302E35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C15677-3864-4EEE-8178-F0E25D07D724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>número</t>
   </si>
@@ -43,16 +43,66 @@
   </si>
   <si>
     <t>mamacha_book</t>
+  </si>
+  <si>
+    <t>https://github.com/javiervzpucp/paucartambo/blob/main/imagenes/1.png</t>
+  </si>
+  <si>
+    <t>Qhapac Chunch’u</t>
+  </si>
+  <si>
+    <t>La coreografía presenta varios pasos. En la “mudanza” se narran</t>
+  </si>
+  <si>
+    <t>los sucesos históricos de los Chunch’us de Kosñipata en su travesía</t>
+  </si>
+  <si>
+    <t>hacia el poblado de Paucartambo. En el “alabado” se proclama</t>
+  </si>
+  <si>
+    <t>el juramento de eterna devoción de los Qhapac Chunch’u a la</t>
+  </si>
+  <si>
+    <t>Mamacha Carmen. El tercer movimiento muestra la coronación</t>
+  </si>
+  <si>
+    <t>del Rey Chunch’u por sus soldados. En el “chontaquiro” el Rey y</t>
+  </si>
+  <si>
+    <t>sus soldados juramentan lealtad y bravura ante la Mamacha Carmen.</t>
+  </si>
+  <si>
+    <t>En el “balance” resalta la exitosa travesía de los Chunch’us y</t>
+  </si>
+  <si>
+    <t>su triunfo ante los Qollas. Finalmente, en el “chankiriy” se desborda</t>
+  </si>
+  <si>
+    <t>la alegría por todos los sucesos.</t>
+  </si>
+  <si>
+    <t>Ellos siempre estarán a los pies de la Mamacha y son sus eternos</t>
+  </si>
+  <si>
+    <t>guardianes.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -75,16 +125,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -366,12 +421,13 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="3" max="3" width="36.88671875" customWidth="1"/>
+    <col min="4" max="4" width="41.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -399,97 +455,129 @@
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+    <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
@@ -543,7 +631,10 @@
       <c r="E22" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{0C604C6B-75C6-4FE2-A476-C419CA64D6F1}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/imagenes.xlsx
+++ b/imagenes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jveraz\Documents\paucartambo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C15677-3864-4EEE-8178-F0E25D07D724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E3F26E-4F0D-4281-AFA5-B0EE07194254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>número</t>
   </si>
@@ -48,43 +48,10 @@
     <t>https://github.com/javiervzpucp/paucartambo/blob/main/imagenes/1.png</t>
   </si>
   <si>
-    <t>Qhapac Chunch’u</t>
-  </si>
-  <si>
-    <t>La coreografía presenta varios pasos. En la “mudanza” se narran</t>
-  </si>
-  <si>
-    <t>los sucesos históricos de los Chunch’us de Kosñipata en su travesía</t>
-  </si>
-  <si>
-    <t>hacia el poblado de Paucartambo. En el “alabado” se proclama</t>
-  </si>
-  <si>
-    <t>el juramento de eterna devoción de los Qhapac Chunch’u a la</t>
-  </si>
-  <si>
-    <t>Mamacha Carmen. El tercer movimiento muestra la coronación</t>
-  </si>
-  <si>
-    <t>del Rey Chunch’u por sus soldados. En el “chontaquiro” el Rey y</t>
-  </si>
-  <si>
-    <t>sus soldados juramentan lealtad y bravura ante la Mamacha Carmen.</t>
-  </si>
-  <si>
-    <t>En el “balance” resalta la exitosa travesía de los Chunch’us y</t>
-  </si>
-  <si>
-    <t>su triunfo ante los Qollas. Finalmente, en el “chankiriy” se desborda</t>
-  </si>
-  <si>
-    <t>la alegría por todos los sucesos.</t>
-  </si>
-  <si>
-    <t>Ellos siempre estarán a los pies de la Mamacha y son sus eternos</t>
-  </si>
-  <si>
-    <t>guardianes.</t>
+    <t>La coreografía presenta varios pasos. En la “mudanza” se narran los sucesos históricos de los Chunch’us de Kosñipata en su travesía hacia el poblado de Paucartambo. En el “alabado” se proclama el juramento de eterna devoción de los Qhapac Chunch’u a la</t>
+  </si>
+  <si>
+    <t>https://github.com/javiervzpucp/paucartambo/blob/main/imagenes/2.png</t>
   </si>
 </sst>
 </file>
@@ -421,7 +388,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -460,7 +427,7 @@
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -470,114 +437,92 @@
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
@@ -633,8 +578,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{0C604C6B-75C6-4FE2-A476-C419CA64D6F1}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{A126CCD3-2648-4697-BFB7-5BEA8A1010D1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>